--- a/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
+++ b/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/alex_barreira_bandtec_com_br/Documents/ALEX -BANTEC/0 - ACADÊMICO/2. GRADUAÇÃO BANDTEC GF/2021 1/ANALISE DE SISTEMAS/Aulas/Aula 03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.sousa\Documents\GitHub\grupo3-provisorio\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E353FDFA-C6D4-4973-8E9F-74C240CC0C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E70479-D3A8-4CA2-A558-BB04B1CAB1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -215,15 +215,6 @@
     <t>US#12.1&lt;Esporte&gt;</t>
   </si>
   <si>
-    <t>O sistema tera a opção de volei</t>
-  </si>
-  <si>
-    <t>US#12.2&lt;Esporte&gt;</t>
-  </si>
-  <si>
-    <t>O sistema tera a opção de tenis</t>
-  </si>
-  <si>
     <t>JU#14&lt;&gt;</t>
   </si>
   <si>
@@ -357,6 +348,21 @@
   </si>
   <si>
     <t>EC</t>
+  </si>
+  <si>
+    <t>O sistema tera a opção de basquete</t>
+  </si>
+  <si>
+    <t>US#12&lt;Avalição&gt;</t>
+  </si>
+  <si>
+    <t>O sistema fornece avaliação entre times</t>
+  </si>
+  <si>
+    <t>O sistema fornece cadastro de times</t>
+  </si>
+  <si>
+    <t>o sistema tera mais que um plano</t>
   </si>
 </sst>
 </file>
@@ -786,27 +792,27 @@
     </xf>
   </cellXfs>
   <cellStyles count="22">
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="21" builtinId="8"/>
+    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -1682,23 +1688,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="23.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="15" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="13" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="13"/>
-    <col min="11" max="11" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="13"/>
+    <col min="3" max="3" width="42.7265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="78.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="0.7265625" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="13" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" style="13"/>
+    <col min="11" max="11" width="13.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1"/>
@@ -1713,8 +1719,8 @@
       <c r="G2" s="41"/>
       <c r="H2" s="42"/>
     </row>
-    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:8" s="22" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="3" spans="2:8" ht="10" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:8" s="22" customFormat="1" ht="25" customHeight="1" thickBot="1">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="5" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1754,7 +1760,7 @@
       </c>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="6" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1771,7 +1777,7 @@
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="7" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1794,7 @@
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="8" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
@@ -1822,7 +1828,7 @@
       </c>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="10" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -1839,7 +1845,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="11" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B11" s="23" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +1862,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="12" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +1879,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="13" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +1896,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="14" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="27" customFormat="1" ht="15">
+    <row r="15" spans="2:8" s="27" customFormat="1" ht="14.5">
       <c r="B15" s="23" t="s">
         <v>8</v>
       </c>
@@ -1924,7 +1930,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:8" s="27" customFormat="1" ht="30">
+    <row r="16" spans="2:8" s="27" customFormat="1" ht="29">
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="17" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B17" s="23" t="s">
         <v>8</v>
       </c>
@@ -1958,7 +1964,7 @@
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B18" s="23" t="s">
         <v>8</v>
       </c>
@@ -1975,7 +1981,7 @@
       </c>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B19" s="23" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
@@ -1992,55 +1998,59 @@
       </c>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="20" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B20" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E20" s="30"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26" t="s">
+      <c r="F20" s="26" t="s">
         <v>11</v>
       </c>
+      <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="21" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B21" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="29"/>
+        <v>40</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>88</v>
+      </c>
       <c r="E21" s="30"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="22" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B22" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="29"/>
+        <v>41</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>89</v>
+      </c>
       <c r="E22" s="30"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="23" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B23" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
@@ -2048,12 +2058,12 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="24" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
@@ -2061,7 +2071,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="25" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B25" s="23" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +2082,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="26" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B26" s="23" t="s">
         <v>8</v>
       </c>
@@ -2083,7 +2093,7 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="27" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B27" s="23" t="s">
         <v>8</v>
       </c>
@@ -2094,7 +2104,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="28" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B28" s="23" t="s">
         <v>8</v>
       </c>
@@ -2105,7 +2115,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="29" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>8</v>
       </c>
@@ -2116,7 +2126,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="30" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B30" s="23" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2137,7 @@
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="31" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B31" s="23" t="s">
         <v>8</v>
       </c>
@@ -2138,7 +2148,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="32" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B32" s="23" t="s">
         <v>8</v>
       </c>
@@ -2149,7 +2159,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="33" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B33" s="23" t="s">
         <v>8</v>
       </c>
@@ -2160,7 +2170,7 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="34" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
         <v>8</v>
       </c>
@@ -2171,87 +2181,87 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="35" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C35" s="33"/>
       <c r="E35" s="34"/>
       <c r="G35" s="35"/>
     </row>
-    <row r="36" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="36" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C36" s="33"/>
       <c r="E36" s="34"/>
       <c r="G36" s="35"/>
     </row>
-    <row r="37" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="37" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C37" s="33"/>
       <c r="E37" s="34"/>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="38" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C38" s="33"/>
       <c r="E38" s="34"/>
       <c r="G38" s="35"/>
     </row>
-    <row r="39" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="39" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C39" s="33"/>
       <c r="E39" s="34"/>
       <c r="G39" s="35"/>
     </row>
-    <row r="40" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="40" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C40" s="33"/>
       <c r="E40" s="34"/>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="41" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C41" s="33"/>
       <c r="E41" s="34"/>
       <c r="G41" s="35"/>
     </row>
-    <row r="42" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="42" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C42" s="33"/>
       <c r="E42" s="34"/>
       <c r="G42" s="35"/>
     </row>
-    <row r="43" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="43" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C43" s="33"/>
       <c r="E43" s="34"/>
       <c r="G43" s="35"/>
     </row>
-    <row r="44" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="44" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C44" s="33"/>
       <c r="E44" s="34"/>
       <c r="G44" s="35"/>
     </row>
-    <row r="45" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="45" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C45" s="33"/>
       <c r="E45" s="34"/>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="46" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C46" s="33"/>
       <c r="E46" s="34"/>
       <c r="G46" s="35"/>
     </row>
-    <row r="47" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="47" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C47" s="33"/>
       <c r="E47" s="34"/>
       <c r="G47" s="35"/>
     </row>
-    <row r="48" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="48" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C48" s="33"/>
       <c r="E48" s="34"/>
       <c r="G48" s="35"/>
     </row>
-    <row r="49" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="49" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C49" s="33"/>
       <c r="E49" s="34"/>
       <c r="G49" s="35"/>
     </row>
-    <row r="50" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="50" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C50" s="33"/>
       <c r="E50" s="34"/>
       <c r="G50" s="35"/>
     </row>
-    <row r="51" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="51" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C51" s="33"/>
       <c r="E51" s="34"/>
       <c r="G51" s="35"/>
@@ -2370,52 +2380,52 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="52.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2423,34 +2433,34 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2467,105 +2477,105 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="68.25" customHeight="1">
       <c r="A16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23.5">
+      <c r="A17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="12" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="23.5">
+      <c r="A18" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.25">
-      <c r="A17" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="23.5">
+      <c r="A19" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.25">
-      <c r="A18" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="23.5">
+      <c r="A20" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.25">
-      <c r="A19" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="23.5">
+      <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.25">
-      <c r="A20" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="23.5">
+      <c r="A22" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.25">
-      <c r="A21" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="23.5">
+      <c r="A23" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="23.25">
-      <c r="A22" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="23.5">
+      <c r="A24" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="23.25">
-      <c r="A23" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="23.5">
+      <c r="A25" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="23.25">
-      <c r="A24" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="23.5">
+      <c r="A26" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="23.25">
-      <c r="A25" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="23.5">
+      <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.25">
-      <c r="A26" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="23.25">
-      <c r="A27" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2593,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
+++ b/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.sousa\Documents\GitHub\grupo3-provisorio\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\grupo3-provisorio\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E70479-D3A8-4CA2-A558-BB04B1CAB1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="885"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
     <sheet name="Dados" sheetId="14" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="16" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Alexander Barreira</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{CDAF273E-A20B-4D5C-B0D1-B3564A967A64}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{EE39FC19-3292-4006-90AF-BA8C8E76E8E0}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -203,9 +202,6 @@
     <t>US#11&lt;Seleção&gt;</t>
   </si>
   <si>
-    <t>O sistema contera 3 opções de esporte</t>
-  </si>
-  <si>
     <t>US#12&lt;Esporte&gt;</t>
   </si>
   <si>
@@ -215,12 +211,6 @@
     <t>US#12.1&lt;Esporte&gt;</t>
   </si>
   <si>
-    <t>JU#14&lt;&gt;</t>
-  </si>
-  <si>
-    <t>BP#15&lt;&gt;</t>
-  </si>
-  <si>
     <t>US#16&lt;&gt;</t>
   </si>
   <si>
@@ -363,12 +353,21 @@
   </si>
   <si>
     <t>o sistema tera mais que um plano</t>
+  </si>
+  <si>
+    <t>JU#14&lt;Cadastro&gt;</t>
+  </si>
+  <si>
+    <t>BP#15&lt;Planos&gt;</t>
+  </si>
+  <si>
+    <t>O sistema contera 2 opções de esporte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1685,26 +1684,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="23.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="78.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="0.7265625" style="15" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="13" customWidth="1"/>
-    <col min="9" max="10" width="8.81640625" style="13"/>
-    <col min="11" max="11" width="13.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="13"/>
+    <col min="3" max="3" width="42.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="13" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="13"/>
+    <col min="11" max="11" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1"/>
@@ -1719,8 +1718,8 @@
       <c r="G2" s="41"/>
       <c r="H2" s="42"/>
     </row>
-    <row r="3" spans="2:8" ht="10" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:8" s="22" customFormat="1" ht="25" customHeight="1" thickBot="1">
+    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:8" s="22" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="5" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +1759,7 @@
       </c>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="6" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1777,7 +1776,7 @@
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="7" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1793,7 @@
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="8" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
@@ -1828,7 +1827,7 @@
       </c>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="10" spans="2:8" s="27" customFormat="1" ht="31.5" customHeight="1">
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -1845,7 +1844,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="11" spans="2:8" s="27" customFormat="1" ht="32.25" customHeight="1">
       <c r="B11" s="23" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1861,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="12" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
@@ -1879,7 +1878,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="13" spans="2:8" s="27" customFormat="1" ht="36.75" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +1895,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="14" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="27" customFormat="1" ht="14.5">
+    <row r="15" spans="2:8" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>8</v>
       </c>
@@ -1930,7 +1929,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:8" s="27" customFormat="1" ht="29">
+    <row r="16" spans="2:8" s="27" customFormat="1" ht="36.75" customHeight="1">
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="17" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B17" s="23" t="s">
         <v>8</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="26"/>
@@ -1964,15 +1963,15 @@
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B18" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="31"/>
@@ -1981,15 +1980,15 @@
       </c>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B19" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
@@ -1998,15 +1997,15 @@
       </c>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="20" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="26" t="s">
@@ -2015,42 +2014,46 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="21" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B21" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="26"/>
+      <c r="F21" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="22" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B22" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="H22" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B23" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
@@ -2058,12 +2061,12 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="24" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
@@ -2071,7 +2074,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="25" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B25" s="23" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2085,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="26" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B26" s="23" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2096,7 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="27" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B27" s="23" t="s">
         <v>8</v>
       </c>
@@ -2104,7 +2107,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="28" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B28" s="23" t="s">
         <v>8</v>
       </c>
@@ -2115,7 +2118,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="29" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>8</v>
       </c>
@@ -2126,7 +2129,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="30" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B30" s="23" t="s">
         <v>8</v>
       </c>
@@ -2137,7 +2140,7 @@
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B31" s="23" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2151,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="32" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B32" s="23" t="s">
         <v>8</v>
       </c>
@@ -2159,7 +2162,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="33" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B33" s="23" t="s">
         <v>8</v>
       </c>
@@ -2170,7 +2173,7 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="34" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
         <v>8</v>
       </c>
@@ -2181,87 +2184,87 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="35" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C35" s="33"/>
       <c r="E35" s="34"/>
       <c r="G35" s="35"/>
     </row>
-    <row r="36" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="36" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C36" s="33"/>
       <c r="E36" s="34"/>
       <c r="G36" s="35"/>
     </row>
-    <row r="37" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="37" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C37" s="33"/>
       <c r="E37" s="34"/>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="38" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C38" s="33"/>
       <c r="E38" s="34"/>
       <c r="G38" s="35"/>
     </row>
-    <row r="39" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="39" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C39" s="33"/>
       <c r="E39" s="34"/>
       <c r="G39" s="35"/>
     </row>
-    <row r="40" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="40" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C40" s="33"/>
       <c r="E40" s="34"/>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="41" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C41" s="33"/>
       <c r="E41" s="34"/>
       <c r="G41" s="35"/>
     </row>
-    <row r="42" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="42" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C42" s="33"/>
       <c r="E42" s="34"/>
       <c r="G42" s="35"/>
     </row>
-    <row r="43" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="43" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C43" s="33"/>
       <c r="E43" s="34"/>
       <c r="G43" s="35"/>
     </row>
-    <row r="44" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="44" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C44" s="33"/>
       <c r="E44" s="34"/>
       <c r="G44" s="35"/>
     </row>
-    <row r="45" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="45" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C45" s="33"/>
       <c r="E45" s="34"/>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="46" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C46" s="33"/>
       <c r="E46" s="34"/>
       <c r="G46" s="35"/>
     </row>
-    <row r="47" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="47" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C47" s="33"/>
       <c r="E47" s="34"/>
       <c r="G47" s="35"/>
     </row>
-    <row r="48" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="48" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C48" s="33"/>
       <c r="E48" s="34"/>
       <c r="G48" s="35"/>
     </row>
-    <row r="49" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="49" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C49" s="33"/>
       <c r="E49" s="34"/>
       <c r="G49" s="35"/>
     </row>
-    <row r="50" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="50" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C50" s="33"/>
       <c r="E50" s="34"/>
       <c r="G50" s="35"/>
     </row>
-    <row r="51" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="51" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="C51" s="33"/>
       <c r="E51" s="34"/>
       <c r="G51" s="35"/>
@@ -2345,7 +2348,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)" xr:uid="{D05B6432-AA2C-4045-919C-377B36218316}"/>
+    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2353,14 +2356,14 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
@@ -2373,59 +2376,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="2"/>
+    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2433,34 +2436,34 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2477,105 +2480,105 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="68.25" customHeight="1">
       <c r="A16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23.25">
+      <c r="A17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="12" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="23.25">
+      <c r="A18" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.5">
-      <c r="A17" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="23.25">
+      <c r="A19" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.5">
-      <c r="A18" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="23.25">
+      <c r="A20" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.5">
-      <c r="A19" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="23.25">
+      <c r="A21" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.5">
-      <c r="A20" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="23.25">
+      <c r="A22" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.5">
-      <c r="A21" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="23.25">
+      <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="23.5">
-      <c r="A22" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="23.25">
+      <c r="A24" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="23.5">
-      <c r="A23" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="23.25">
+      <c r="A25" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="23.5">
-      <c r="A24" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="23.25">
+      <c r="A26" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="23.5">
-      <c r="A25" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="23.25">
+      <c r="A27" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.5">
-      <c r="A26" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="23.5">
-      <c r="A27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2586,14 +2589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94976FE-4B40-493B-8530-5823F3478496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
+++ b/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\grupo3-provisorio\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{481E42BD-FF2B-438D-9FB5-548F4D7C5371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="885"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
     <sheet name="Dados" sheetId="14" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="16" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alexander Barreira</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -118,27 +119,33 @@
     <t>Desejavél</t>
   </si>
   <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>US#1 &lt;Cadastro de Atleta&gt;</t>
+  </si>
+  <si>
+    <t>O sistema deve ter um cadastro de atletas</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Congelada</t>
+  </si>
+  <si>
+    <t>US#2 &lt;Cadastro de Donos de quadra&gt;</t>
+  </si>
+  <si>
+    <t>O Sistemas dever ter um cadastro de donos de quadra</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Planejada</t>
   </si>
   <si>
-    <t>US#1 &lt;Cadastro de Atleta&gt;</t>
-  </si>
-  <si>
-    <t>O sistema deve ter um cadastro de atletas</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>US#2 &lt;Cadastro de Donos de quadra&gt;</t>
-  </si>
-  <si>
-    <t>O Sistemas dever ter um cadastro de donos de quadra</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>US#3&lt;Geolocalização&gt;</t>
   </si>
   <si>
@@ -187,10 +194,13 @@
     <t>O sistema fornecera dados de quadras ja frequentadas</t>
   </si>
   <si>
-    <t>US#10.1&lt;Seleção&gt;</t>
-  </si>
-  <si>
-    <t>O Usuario podera selecionar o esporte que deseja praticar</t>
+    <t>BP#15&lt;Planos&gt;</t>
+  </si>
+  <si>
+    <t>o sistema tera mais que um plano</t>
+  </si>
+  <si>
+    <t>Em Andamento</t>
   </si>
   <si>
     <t>ME#10.2&lt;Avaliação&gt;</t>
@@ -199,22 +209,16 @@
     <t>O sistema deverá permitir que o usuario atleta avalie a quadra que ele frequentou</t>
   </si>
   <si>
-    <t>US#11&lt;Seleção&gt;</t>
-  </si>
-  <si>
-    <t>US#12&lt;Esporte&gt;</t>
-  </si>
-  <si>
-    <t>O sistema tera a opção de futebol</t>
-  </si>
-  <si>
-    <t>US#12.1&lt;Esporte&gt;</t>
-  </si>
-  <si>
-    <t>US#16&lt;&gt;</t>
-  </si>
-  <si>
-    <t>DR#17&lt;&gt;</t>
+    <t>US#12&lt;Avalição&gt;</t>
+  </si>
+  <si>
+    <t>O sistema fornece avaliação entre times</t>
+  </si>
+  <si>
+    <t>JU#14&lt;Cadastro&gt;</t>
+  </si>
+  <si>
+    <t>O sistema fornece cadastro de times</t>
   </si>
   <si>
     <t>Status</t>
@@ -229,21 +233,12 @@
     <t>João</t>
   </si>
   <si>
-    <t>Feito</t>
-  </si>
-  <si>
     <t>Joana</t>
   </si>
   <si>
-    <t>Congelada</t>
-  </si>
-  <si>
     <t>Joaquim</t>
   </si>
   <si>
-    <t>Em Andamento</t>
-  </si>
-  <si>
     <t>Joaquina</t>
   </si>
   <si>
@@ -338,36 +333,12 @@
   </si>
   <si>
     <t>EC</t>
-  </si>
-  <si>
-    <t>O sistema tera a opção de basquete</t>
-  </si>
-  <si>
-    <t>US#12&lt;Avalição&gt;</t>
-  </si>
-  <si>
-    <t>O sistema fornece avaliação entre times</t>
-  </si>
-  <si>
-    <t>O sistema fornece cadastro de times</t>
-  </si>
-  <si>
-    <t>o sistema tera mais que um plano</t>
-  </si>
-  <si>
-    <t>JU#14&lt;Cadastro&gt;</t>
-  </si>
-  <si>
-    <t>BP#15&lt;Planos&gt;</t>
-  </si>
-  <si>
-    <t>O sistema contera 2 opções de esporte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -650,7 +621,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,13 +720,6 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -791,30 +755,560 @@
     </xf>
   </cellXfs>
   <cellStyles count="22">
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="21" builtinId="8"/>
-    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="86">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1684,11 +2178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -1708,15 +2202,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:8" s="22" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
@@ -1749,7 +2243,7 @@
       <c r="C5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="25"/>
@@ -1761,35 +2255,35 @@
     </row>
     <row r="6" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="37" t="s">
         <v>13</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="26"/>
     </row>
@@ -1798,10 +2292,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="26"/>
@@ -1815,10 +2309,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
@@ -1832,27 +2326,27 @@
         <v>8</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
     </row>
     <row r="11" spans="2:8" s="27" customFormat="1" ht="32.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="26" t="s">
@@ -1863,13 +2357,13 @@
     </row>
     <row r="12" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="26" t="s">
@@ -1880,13 +2374,13 @@
     </row>
     <row r="13" spans="2:8" s="27" customFormat="1" ht="36.75" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="26" t="s">
@@ -1897,47 +2391,47 @@
     </row>
     <row r="14" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="2:8" s="27" customFormat="1" ht="36.75" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="26"/>
@@ -1946,115 +2440,89 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="17" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="E17" s="30"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>11</v>
       </c>
+      <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="F18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
       <c r="B19" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="30"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>84</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>85</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="F21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>86</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="30"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C23" s="24"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
       <c r="F23" s="26"/>
@@ -2063,11 +2531,9 @@
     </row>
     <row r="24" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C24" s="24"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
       <c r="F24" s="26"/>
@@ -2076,7 +2542,7 @@
     </row>
     <row r="25" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B25" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="29"/>
@@ -2087,7 +2553,7 @@
     </row>
     <row r="26" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B26" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="23"/>
@@ -2098,7 +2564,7 @@
     </row>
     <row r="27" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B27" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="23"/>
@@ -2109,7 +2575,7 @@
     </row>
     <row r="28" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B28" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="23"/>
@@ -2120,7 +2586,7 @@
     </row>
     <row r="29" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="23"/>
@@ -2131,7 +2597,7 @@
     </row>
     <row r="30" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B30" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="23"/>
@@ -2142,7 +2608,7 @@
     </row>
     <row r="31" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B31" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="23"/>
@@ -2153,7 +2619,7 @@
     </row>
     <row r="32" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B32" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="23"/>
@@ -2164,7 +2630,7 @@
     </row>
     <row r="33" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B33" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="23"/>
@@ -2175,7 +2641,7 @@
     </row>
     <row r="34" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="23"/>
@@ -2185,170 +2651,395 @@
       <c r="H34" s="26"/>
     </row>
     <row r="35" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="G35" s="35"/>
+      <c r="C35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="G36" s="35"/>
+      <c r="C36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="35"/>
+      <c r="C37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="G38" s="35"/>
+      <c r="C38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="G39" s="35"/>
+      <c r="C39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="G41" s="35"/>
+      <c r="C41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="G42" s="35"/>
+      <c r="C42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="G43" s="35"/>
+      <c r="C43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="G44" s="35"/>
+      <c r="C44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="G45" s="35"/>
+      <c r="C45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C46" s="33"/>
-      <c r="E46" s="34"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="G47" s="35"/>
+      <c r="C47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="G47" s="33"/>
     </row>
     <row r="48" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="G48" s="35"/>
+      <c r="C48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="G48" s="33"/>
     </row>
     <row r="49" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="G49" s="35"/>
+      <c r="C49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="G50" s="35"/>
+      <c r="C50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="G50" s="33"/>
     </row>
     <row r="51" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="G51" s="35"/>
+      <c r="C51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="G51" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B5:E5 E6 C5:C6 B6:B34">
-    <cfRule type="expression" dxfId="20" priority="34">
+  <conditionalFormatting sqref="B5:E5 E6 C5:C6 B6:B14 B16 B23:B34">
+    <cfRule type="expression" dxfId="85" priority="112">
       <formula>$B5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="35">
+    <cfRule type="expression" dxfId="84" priority="113">
       <formula>$B5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="36">
+    <cfRule type="expression" dxfId="83" priority="114">
       <formula>$B5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="37">
+    <cfRule type="expression" dxfId="82" priority="115">
       <formula>$B5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="81" priority="104">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="80" priority="105">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="79" priority="106">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="78" priority="107">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="77" priority="96">
       <formula>$B6="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="76" priority="97">
       <formula>$B6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="75" priority="98">
       <formula>$B6="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="74" priority="99">
       <formula>$B6="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C34">
-    <cfRule type="expression" dxfId="8" priority="10">
+  <conditionalFormatting sqref="C7:C14 C16 C23:C34">
+    <cfRule type="expression" dxfId="73" priority="88">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="72" priority="89">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="71" priority="90">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="70" priority="91">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D34">
+  <conditionalFormatting sqref="D8:D14 D16 D23:D34">
+    <cfRule type="expression" dxfId="69" priority="79">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="84">
+      <formula>$B8="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="85">
+      <formula>$B8="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="86">
+      <formula>$B8="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="87">
+      <formula>$B8="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="64" priority="75">
+      <formula>$B15="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="76">
+      <formula>$B15="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="77">
+      <formula>$B15="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="78">
+      <formula>$B15="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="60" priority="71">
+      <formula>$B15="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="72">
+      <formula>$B15="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="73">
+      <formula>$B15="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="74">
+      <formula>$B15="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="56" priority="66">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="67">
+      <formula>$B15="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="68">
+      <formula>$B15="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="69">
+      <formula>$B15="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="70">
+      <formula>$B15="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="51" priority="62">
+      <formula>$B22="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="63">
+      <formula>$B22="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="64">
+      <formula>$B22="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="65">
+      <formula>$B22="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="47" priority="58">
+      <formula>$B22="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="59">
+      <formula>$B22="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="60">
+      <formula>$B22="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="61">
+      <formula>$B22="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="43" priority="53">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="54">
+      <formula>$B22="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="55">
+      <formula>$B22="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="56">
+      <formula>$B22="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="57">
+      <formula>$B22="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18">
+    <cfRule type="expression" dxfId="38" priority="36">
+      <formula>$B17="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>$B17="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>$B17="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$B17="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C18">
+    <cfRule type="expression" dxfId="34" priority="32">
+      <formula>$B17="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>$B17="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$B17="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>$B17="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="expression" dxfId="30" priority="27">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>$B17="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$B17="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="30">
+      <formula>$B17="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>$B17="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>$B20="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$B20="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>$B20="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>$B20="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C21">
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$B20="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$B20="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$B20="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$B20="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="expression" dxfId="17" priority="14">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="15">
+      <formula>$B20="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$B20="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>$B20="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>$B20="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>$B19="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$B19="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$B19="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$B19="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$B19="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$B19="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$B19="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$B19="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$B8="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$B8="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$B8="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$B8="Dropped"</formula>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$B19="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B19="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$B19="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$B19="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)"/>
+    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2357,13 +3048,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
@@ -2376,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2393,23 +3084,23 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>46</v>
@@ -2417,53 +3108,53 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2480,105 +3171,105 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="68.25" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="23.25">
       <c r="A17" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
       <c r="A18" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23.25">
       <c r="A19" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.25">
       <c r="A20" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25">
       <c r="A21" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23.25">
       <c r="A22" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="23.25">
       <c r="A23" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="23.25">
       <c r="A24" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.25">
       <c r="A25" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.25">
       <c r="A26" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="23.25">
       <c r="A27" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +3280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
+++ b/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\grupo3-provisorio\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.sousa\Documents\GitHub\grupo3-provisorio\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{481E42BD-FF2B-438D-9FB5-548F4D7C5371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1598495-CA96-49FA-926B-449C35F9B4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Planilha1" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -755,27 +756,27 @@
     </xf>
   </cellXfs>
   <cellStyles count="22">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="21" builtinId="8"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="86">
@@ -2181,23 +2182,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="23.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="15" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="13" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="13"/>
-    <col min="11" max="11" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="13"/>
+    <col min="3" max="3" width="42.7265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="78.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="0.7265625" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="13" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" style="13"/>
+    <col min="11" max="11" width="13.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1"/>
@@ -2212,8 +2213,8 @@
       <c r="G2" s="39"/>
       <c r="H2" s="40"/>
     </row>
-    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:8" s="22" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="3" spans="2:8" ht="10" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:8" s="22" customFormat="1" ht="25" customHeight="1" thickBot="1">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="5" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
@@ -2253,9 +2254,9 @@
       </c>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="6" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>13</v>
@@ -2270,9 +2271,9 @@
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="7" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>17</v>
@@ -2287,7 +2288,7 @@
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="8" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2355,7 +2356,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="12" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
@@ -2374,7 +2375,7 @@
     </row>
     <row r="13" spans="2:8" s="27" customFormat="1" ht="36.75" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>29</v>
@@ -2389,9 +2390,9 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="14" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>31</v>
@@ -2408,7 +2409,7 @@
     </row>
     <row r="15" spans="2:8" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>33</v>
@@ -2440,9 +2441,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="17" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>38</v>
@@ -2457,9 +2458,9 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>40</v>
@@ -2474,7 +2475,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
@@ -2485,7 +2486,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="20" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B20" s="23" t="s">
         <v>16</v>
       </c>
@@ -2496,7 +2497,7 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="21" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B21" s="23" t="s">
         <v>16</v>
       </c>
@@ -2507,7 +2508,7 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="22" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B22" s="23" t="s">
         <v>16</v>
       </c>
@@ -2518,7 +2519,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="23" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
@@ -2529,7 +2530,7 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="24" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
         <v>16</v>
       </c>
@@ -2540,7 +2541,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="25" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B25" s="23" t="s">
         <v>16</v>
       </c>
@@ -2551,7 +2552,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="26" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B26" s="23" t="s">
         <v>16</v>
       </c>
@@ -2562,7 +2563,7 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="27" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
@@ -2573,7 +2574,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="28" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B28" s="23" t="s">
         <v>16</v>
       </c>
@@ -2584,7 +2585,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="29" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>16</v>
       </c>
@@ -2595,7 +2596,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="30" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B30" s="23" t="s">
         <v>16</v>
       </c>
@@ -2606,7 +2607,7 @@
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="31" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
@@ -2617,7 +2618,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="32" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B32" s="23" t="s">
         <v>16</v>
       </c>
@@ -2628,7 +2629,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="33" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B33" s="23" t="s">
         <v>16</v>
       </c>
@@ -2639,7 +2640,7 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="34" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
         <v>16</v>
       </c>
@@ -2650,87 +2651,87 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="35" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C35" s="31"/>
       <c r="E35" s="32"/>
       <c r="G35" s="33"/>
     </row>
-    <row r="36" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="36" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C36" s="31"/>
       <c r="E36" s="32"/>
       <c r="G36" s="33"/>
     </row>
-    <row r="37" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="37" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C37" s="31"/>
       <c r="E37" s="32"/>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="38" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C38" s="31"/>
       <c r="E38" s="32"/>
       <c r="G38" s="33"/>
     </row>
-    <row r="39" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="39" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C39" s="31"/>
       <c r="E39" s="32"/>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="40" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C40" s="31"/>
       <c r="E40" s="32"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="41" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C41" s="31"/>
       <c r="E41" s="32"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="42" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C42" s="31"/>
       <c r="E42" s="32"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="43" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C43" s="31"/>
       <c r="E43" s="32"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="44" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C44" s="31"/>
       <c r="E44" s="32"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="45" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C45" s="31"/>
       <c r="E45" s="32"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="46" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C46" s="31"/>
       <c r="E46" s="32"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="47" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C47" s="31"/>
       <c r="E47" s="32"/>
       <c r="G47" s="33"/>
     </row>
-    <row r="48" spans="2:8" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="48" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C48" s="31"/>
       <c r="E48" s="32"/>
       <c r="G48" s="33"/>
     </row>
-    <row r="49" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="49" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C49" s="31"/>
       <c r="E49" s="32"/>
       <c r="G49" s="33"/>
     </row>
-    <row r="50" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="50" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C50" s="31"/>
       <c r="E50" s="32"/>
       <c r="G50" s="33"/>
     </row>
-    <row r="51" spans="3:7" s="27" customFormat="1" ht="23.1" customHeight="1">
+    <row r="51" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="C51" s="31"/>
       <c r="E51" s="32"/>
       <c r="G51" s="33"/>
@@ -3074,12 +3075,12 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="52.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3184,7 +3185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23.25">
+    <row r="17" spans="1:2" ht="23.5">
       <c r="A17" s="10" t="s">
         <v>58</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23.25">
+    <row r="18" spans="1:2" ht="23.5">
       <c r="A18" s="10" t="s">
         <v>60</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.25">
+    <row r="19" spans="1:2" ht="23.5">
       <c r="A19" s="10" t="s">
         <v>62</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="23.25">
+    <row r="20" spans="1:2" ht="23.5">
       <c r="A20" s="10" t="s">
         <v>64</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="23.25">
+    <row r="21" spans="1:2" ht="23.5">
       <c r="A21" s="10" t="s">
         <v>66</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23.25">
+    <row r="22" spans="1:2" ht="23.5">
       <c r="A22" s="10" t="s">
         <v>68</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="23.25">
+    <row r="23" spans="1:2" ht="23.5">
       <c r="A23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="23.25">
+    <row r="24" spans="1:2" ht="23.5">
       <c r="A24" s="10" t="s">
         <v>72</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="23.25">
+    <row r="25" spans="1:2" ht="23.5">
       <c r="A25" s="10" t="s">
         <v>74</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="23.25">
+    <row r="26" spans="1:2" ht="23.5">
       <c r="A26" s="10" t="s">
         <v>76</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="23.25">
+    <row r="27" spans="1:2" ht="23.5">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -3287,7 +3288,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
+++ b/Documentação/PRODUCT BACKLOG - SPORT.FY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.sousa\Documents\GitHub\grupo3-provisorio\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1598495-CA96-49FA-926B-449C35F9B4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CD244D-D3C9-442A-AB05-629F156F9518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Planilha1" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -94,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -334,6 +333,12 @@
   </si>
   <si>
     <t>EC</t>
+  </si>
+  <si>
+    <t>US#11&lt;Seleção&gt;</t>
+  </si>
+  <si>
+    <t>O sistema contera 2 opções de esporte</t>
   </si>
 </sst>
 </file>
@@ -466,7 +471,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,8 +508,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F3F4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -597,6 +608,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -622,7 +648,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,6 +779,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -2182,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="23.15" customHeight="1"/>
@@ -2273,7 +2308,7 @@
     </row>
     <row r="7" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>17</v>
@@ -2324,7 +2359,7 @@
     </row>
     <row r="10" spans="2:8" s="27" customFormat="1" ht="31.5" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>23</v>
@@ -2341,7 +2376,7 @@
     </row>
     <row r="11" spans="2:8" s="27" customFormat="1" ht="32.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>25</v>
@@ -2358,7 +2393,7 @@
     </row>
     <row r="12" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>27</v>
@@ -2375,7 +2410,7 @@
     </row>
     <row r="13" spans="2:8" s="27" customFormat="1" ht="36.75" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>29</v>
@@ -2392,7 +2427,7 @@
     </row>
     <row r="14" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>31</v>
@@ -2426,7 +2461,7 @@
     </row>
     <row r="16" spans="2:8" s="27" customFormat="1" ht="36.75" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>36</v>
@@ -2458,7 +2493,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B18" s="23" t="s">
         <v>44</v>
       </c>
@@ -2475,27 +2510,41 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="42"/>
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="26" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="B21" s="23" t="s">
@@ -2963,35 +3012,35 @@
       <formula>$B20="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$B20="Done!"</formula>
+      <formula>$B21="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$B20="Ongoing"</formula>
+      <formula>$B21="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$B20="Blocked"</formula>
+      <formula>$B21="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$B20="Dropped"</formula>
+      <formula>$B21="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="17" priority="14">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="15">
-      <formula>$B20="Done!"</formula>
+      <formula>$B21="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$B20="Ongoing"</formula>
+      <formula>$B21="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="17">
-      <formula>$B20="Blocked"</formula>
+      <formula>$B21="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="18">
-      <formula>$B20="Dropped"</formula>
+      <formula>$B21="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
@@ -3005,37 +3054,6 @@
       <formula>$B19="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$B19="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>$B19="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$B19="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$B19="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$B19="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$B$4="Plannedd"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$B19="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$B19="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$B19="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$B19="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3059,7 +3077,7 @@
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E34</xm:sqref>
+          <xm:sqref>E5:E18 E21:E34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
